--- a/static/batch_excel/stkmove.xlsx
+++ b/static/batch_excel/stkmove.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\batch_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\static\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF359290-8260-4D3B-95EC-37EBA2600A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299E5AC-3146-444C-A8F9-6494381AAD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0A82B-BF1B-4E45-9635-A7C15CB8F67A}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/static/batch_excel/stkmove.xlsx
+++ b/static/batch_excel/stkmove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\static\batch_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_flask_2021092901\static\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299E5AC-3146-444C-A8F9-6494381AAD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2F95E-AA57-4F5B-9D3F-4B4FC3DACB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,10 @@
   </si>
   <si>
     <t>WSD156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,28 +776,28 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="18.125" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="14" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -867,25 +867,25 @@
         <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -911,25 +911,25 @@
         <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -955,25 +955,25 @@
         <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -999,25 +999,25 @@
         <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1037,248 +1037,248 @@
         <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>5349</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>5349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>5349</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>5349</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
         <v>5349</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/static/batch_excel/stkmove.xlsx
+++ b/static/batch_excel/stkmove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_flask_2021092901\static\batch_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\static\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2F95E-AA57-4F5B-9D3F-4B4FC3DACB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BEBCA-1823-4277-848F-E4E1022B87B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6635BFC9-CFAC-4912-A45A-DAF6825ABE99}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>strCARRIERTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,21 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ER-A01-01</t>
-  </si>
-  <si>
-    <t>ER-A01-02</t>
-  </si>
-  <si>
-    <t>ER-A01-03</t>
-  </si>
-  <si>
-    <t>ER-A01-04</t>
-  </si>
-  <si>
-    <t>ER-A01-05</t>
-  </si>
-  <si>
     <t>ER-A01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +184,6 @@
   </si>
   <si>
     <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,8 +241,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20210929104628000</t>
+    <t>OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GY00</t>
     </r>
     <r>
       <rPr>
@@ -271,13 +260,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20210929104628000</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GY00</t>
     </r>
     <r>
       <rPr>
@@ -287,13 +276,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20210929104628000</t>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GY00</t>
     </r>
     <r>
       <rPr>
@@ -303,13 +292,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20210929104628000</t>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GY0</t>
     </r>
     <r>
       <rPr>
@@ -319,80 +308,36 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER-B01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER-B01-02</t>
-  </si>
-  <si>
-    <t>ER-B01-03</t>
-  </si>
-  <si>
-    <t>ER-B01-04</t>
-  </si>
-  <si>
-    <t>ER-B01-05</t>
-  </si>
-  <si>
-    <t>ER-B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSD030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSD023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSD163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSD162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSD156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFF</t>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GY0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSD007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,31 +718,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0A82B-BF1B-4E45-9635-A7C15CB8F67A}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="A8" sqref="A8:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -851,41 +796,41 @@
       <c r="C2" s="2">
         <v>5349</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -896,40 +841,40 @@
         <v>5349</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -940,40 +885,40 @@
         <v>5349</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -981,43 +926,43 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1028,258 +973,155 @@
         <v>5349</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>5349</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
+      <c r="D7" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5349</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5349</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5349</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5349</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
